--- a/file1.xlsx
+++ b/file1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>a</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>ab</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -349,15 +352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -365,15 +368,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -382,16 +388,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/file1.xlsx
+++ b/file1.xlsx
@@ -1,46 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C8C8A1-3A0E-4F02-98AF-CF71BBD8F091}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-31065" yWindow="2895" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ещё лист" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -351,73 +345,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>11</v>
+      </c>
+      <c r="C1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
       </c>
       <c r="B4">
-        <f>B2*B3</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/file1.xlsx
+++ b/file1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C8C8A1-3A0E-4F02-98AF-CF71BBD8F091}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E46522-3D5B-4601-BB3E-54A416EB9036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31065" yWindow="2895" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30720" yWindow="3240" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,7 +345,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/file1.xlsx
+++ b/file1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E46522-3D5B-4601-BB3E-54A416EB9036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28240017-168D-4E67-BEB2-45D551954035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30720" yWindow="3240" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="3240" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -342,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,6 +407,17 @@
         <v>66</v>
       </c>
       <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
